--- a/sintese-conteudo.xlsx
+++ b/sintese-conteudo.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgefernandes/Library/Mobile Documents/com~apple~CloudDocs/Documents/checklists-selo/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6406F2-3ACA-724A-9A7A-DD40247CC221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CF7A" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="23180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Síntese" sheetId="1" r:id="rId1"/>
@@ -32,10 +33,16 @@
     <sheet name="5.3" sheetId="17" r:id="rId17"/>
     <sheet name="5.4" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="66">
   <si>
     <t>Checklist "Conteúdo"</t>
   </si>
@@ -257,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy;@"/>
@@ -493,7 +500,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,6 +574,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -579,12 +589,12 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -773,7 +783,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -833,7 +849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -893,7 +915,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -953,7 +981,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1013,7 +1047,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1073,7 +1113,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1133,7 +1179,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1193,7 +1245,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1253,7 +1311,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1313,7 +1377,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1373,7 +1443,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1433,7 +1509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1493,7 +1575,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1553,7 +1641,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1613,7 +1707,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1673,7 +1773,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1733,7 +1839,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="ontacte a equipa da Unidade ACESSO da AMA">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2038,11 +2150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:M32"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2056,7 +2168,7 @@
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="34" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" ht="34" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2064,26 +2176,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="5" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="5" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18"/>
       <c r="C5" s="33" t="s">
         <v>51</v>
@@ -2091,13 +2203,19 @@
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
       <c r="C6" s="33" t="s">
         <v>52</v>
@@ -2105,11 +2223,19 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
       <c r="C7" s="33" t="s">
         <v>50</v>
@@ -2117,13 +2243,19 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
       <c r="C8" s="33" t="s">
         <v>48</v>
@@ -2136,8 +2268,14 @@
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
-    </row>
-    <row r="10" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="10" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
@@ -2148,7 +2286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
         <v>26</v>
@@ -2156,19 +2294,19 @@
       <c r="D11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-    </row>
-    <row r="12" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="str">
         <f>IF('1.1'!$B$3="x","x"," ")</f>
         <v>x</v>
@@ -2181,18 +2319,18 @@
         <f>IF('1.1'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="str">
         <f>IF('1.2'!$B$3="x","x"," ")</f>
         <v>x</v>
@@ -2205,18 +2343,18 @@
         <f>IF('1.2'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+    </row>
+    <row r="14" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="str">
         <f>IF('1.3'!$B$3="x","x"," ")</f>
         <v>x</v>
@@ -2229,18 +2367,18 @@
         <f>IF('1.3'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+    </row>
+    <row r="15" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="str">
         <f>IF('1.4'!$B$3="x","x"," ")</f>
         <v>x</v>
@@ -2253,32 +2391,32 @@
         <f>IF('1.4'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-    </row>
-    <row r="16" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="2:15" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="str">
@@ -2293,16 +2431,16 @@
         <f>IF('2.1'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="str">
@@ -2317,16 +2455,16 @@
         <f>IF('2.2'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="16" t="str">
@@ -2341,16 +2479,16 @@
         <f>IF('2.3'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="str">
@@ -2365,32 +2503,32 @@
         <f>IF('2.4'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
     </row>
     <row r="22" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="str">
@@ -2405,16 +2543,16 @@
         <f>IF('3.1'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
     </row>
     <row r="23" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="str">
@@ -2429,16 +2567,16 @@
         <f>IF('3.2'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
     </row>
     <row r="24" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="str">
@@ -2453,32 +2591,32 @@
         <f>IF('3.3'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
     </row>
     <row r="26" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="str">
@@ -2493,16 +2631,16 @@
         <f>IF('4.1'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="str">
@@ -2517,32 +2655,32 @@
         <f>IF('4.2'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="str">
@@ -2557,16 +2695,16 @@
         <f>IF('5.1'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="str">
@@ -2581,16 +2719,16 @@
         <f>IF('5.2'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
     </row>
     <row r="31" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="str">
@@ -2605,16 +2743,16 @@
         <f>IF('5.3'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
     </row>
     <row r="32" spans="2:13" s="13" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="str">
@@ -2629,16 +2767,16 @@
         <f>IF('5.4'!$D$3="x", "x", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
     </row>
     <row r="36" spans="6:11" ht="34" x14ac:dyDescent="0.4">
       <c r="F36" s="3" t="s">
@@ -2646,20 +2784,20 @@
       </c>
     </row>
     <row r="37" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="37"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="2">
         <f>COUNTIF(D12:D32,"x")</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="37"/>
+      <c r="G38" s="38"/>
       <c r="H38">
         <v>17</v>
       </c>
@@ -2676,184 +2814,184 @@
       </c>
     </row>
     <row r="43" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
     </row>
     <row r="44" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
     </row>
     <row r="45" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
     </row>
     <row r="48" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
     </row>
     <row r="55" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
     </row>
     <row r="65" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
     </row>
     <row r="66" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
     </row>
     <row r="67" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7FeWrHP4dq80FZPKdCi+cWVIvUWIHD9KAu8g89neN42kX057LO/VUCSeWYdUiBYu5Ve+ODVR2rT4USltsufpZQ==" saltValue="afWhdij/e9xxxtWmF4ezaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="33">
     <mergeCell ref="I2:M3"/>
     <mergeCell ref="G43:K67"/>
@@ -2871,16 +3009,16 @@
     <mergeCell ref="F17:M17"/>
     <mergeCell ref="F18:M18"/>
     <mergeCell ref="F19:M19"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G7:I7"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="F29:M29"/>
     <mergeCell ref="F30:M30"/>
     <mergeCell ref="F20:M20"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="G7:O7"/>
     <mergeCell ref="F31:M31"/>
     <mergeCell ref="F32:M32"/>
     <mergeCell ref="F22:M22"/>
@@ -2947,23 +3085,24 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F12:M12" location="'1.1'!B3" display="1.1 O sítio Web apresenta um resumo breve do seu propósito, visível sem se fazer scroll"/>
-    <hyperlink ref="F13:M13" location="'1.2'!B3" display="1.2 Os termos mais complexos têm uma definição agregada"/>
-    <hyperlink ref="F14:M14" location="'1.3'!B3" display="1.3 Cada bloco de conteúdo contém a sua data de atualização"/>
-    <hyperlink ref="F15:M15" location="'1.4'!B3" display="1.4 A informação sobre a entidade responsável pelo conteúdo está em todas as páginas"/>
-    <hyperlink ref="F17:M17" location="'2.1'!B3" display="2.1 O tipo de letra do corpo do documento é adequado e o tamanho da letra é, no mínimo, de 12 pontos"/>
-    <hyperlink ref="F18:M18" location="'2.2'!B3" display="2.2 A informação secundária (datas, autores) utiliza, no mínimo, um tamanho de letra de 10 pontos"/>
-    <hyperlink ref="F19:M19" location="'2.3'!B3" display="2.3 Blocos e linhas de texto com largura não superior a 100 caracteres"/>
-    <hyperlink ref="F20:M20" location="'2.4'!B3" display="2.4 O espaçamento entre linhas não é inferior a 1.5x o tamanho da letra"/>
-    <hyperlink ref="F22:M22" location="'3.1'!B3" display="3.1 Nenhum nível de navegação tem mais de 9 opções"/>
-    <hyperlink ref="F23:M23" location="'3.2'!B3" display="3.2 A navegação principal está sempre visível e sempre no mesmo local"/>
-    <hyperlink ref="F24:M24" location="'3.3'!B3" display="3.3 As hiperligações de texto não devem ser diferenciadas apenas com base na cor"/>
-    <hyperlink ref="F26:M26" location="'4.1'!B3" display="4.1 Os documentos longos têm um índice no topo com hiperligações internas para o mesmo"/>
-    <hyperlink ref="F27:M27" location="'4.2'!B3" display="4.2 O layout do sítio Web é adaptável a plataformas móveis sem necessidade de efetuar varrimento horizontal"/>
-    <hyperlink ref="F29:M29" location="'5.1'!B3" display="5.1 Não existem elementos interativos acionados apenas com a passagem do rato (hover)"/>
-    <hyperlink ref="F30:M30" location="'5.2'!B3" display="5.2 Os elementos interativos têm uma dimensão mínima de 44px CSS (44 pontos) (vertical e horizontal)"/>
-    <hyperlink ref="F31:M31" location="'5.3'!B3" display="5.3 Há apenas um botão de ação principal por página e o mesmo encontra-se destacado"/>
-    <hyperlink ref="F32:M32" location="'5.4'!B3" display="5.4 Elementos gráficos interativos têm de aparentar ser clicáveis"/>
+    <hyperlink ref="F12:M12" location="'1.1'!B3" display="1.1 O sítio Web apresenta um resumo breve do seu propósito, visível sem se fazer scroll" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F13:M13" location="'1.2'!B3" display="1.2 Os termos mais complexos têm uma definição agregada" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F14:M14" location="'1.3'!B3" display="1.3 Cada bloco de conteúdo contém a sua data de atualização" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F15:M15" location="'1.4'!B3" display="1.4 A informação sobre a entidade responsável pelo conteúdo está em todas as páginas" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F17:M17" location="'2.1'!B3" display="2.1 O tipo de letra do corpo do documento é adequado e o tamanho da letra é, no mínimo, de 12 pontos" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F18:M18" location="'2.2'!B3" display="2.2 A informação secundária (datas, autores) utiliza, no mínimo, um tamanho de letra de 10 pontos" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F19:M19" location="'2.3'!B3" display="2.3 Blocos e linhas de texto com largura não superior a 100 caracteres" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F20:M20" location="'2.4'!B3" display="2.4 O espaçamento entre linhas não é inferior a 1.5x o tamanho da letra" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F22:M22" location="'3.1'!B3" display="3.1 Nenhum nível de navegação tem mais de 9 opções" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F23:M23" location="'3.2'!B3" display="3.2 A navegação principal está sempre visível e sempre no mesmo local" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F24:M24" location="'3.3'!B3" display="3.3 As hiperligações de texto não devem ser diferenciadas apenas com base na cor" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F26:M26" location="'4.1'!B3" display="4.1 Os documentos longos têm um índice no topo com hiperligações internas para o mesmo" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F27:M27" location="'4.2'!B3" display="4.2 O layout do sítio Web é adaptável a plataformas móveis sem necessidade de efetuar varrimento horizontal" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F29:M29" location="'5.1'!B3" display="5.1 Não existem elementos interativos acionados apenas com a passagem do rato (hover)" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F30:M30" location="'5.2'!B3" display="5.2 Os elementos interativos têm uma dimensão mínima de 44px CSS (44 pontos) (vertical e horizontal)" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F31:M31" location="'5.3'!B3" display="5.3 Há apenas um botão de ação principal por página e o mesmo encontra-se destacado" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F32:M32" location="'5.4'!B3" display="5.4 Elementos gráficos interativos têm de aparentar ser clicáveis" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G6" r:id="rId1" display="https://www.iap.gov.pt" xr:uid="{EFB3E98B-AEBC-E842-9ECA-7799C8F1CAAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -2971,7 +3110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2989,11 +3128,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -3072,17 +3211,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -3160,10 +3299,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -3178,10 +3317,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -3196,10 +3335,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -3214,10 +3353,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -3232,10 +3371,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -3250,10 +3389,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -3268,10 +3407,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -3286,10 +3425,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -3304,10 +3443,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -3322,10 +3461,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -3340,10 +3479,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -3358,10 +3497,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -3376,10 +3515,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -3394,10 +3533,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -3412,10 +3551,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -3430,10 +3569,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -3448,10 +3587,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -3466,10 +3605,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -3484,10 +3623,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -3502,10 +3641,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -3554,7 +3693,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3562,7 +3701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3580,11 +3719,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -3663,17 +3802,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -3751,10 +3890,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -3769,10 +3908,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -3787,10 +3926,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -3805,10 +3944,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -3823,10 +3962,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -3841,10 +3980,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -3859,10 +3998,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -3877,10 +4016,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -3895,10 +4034,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -3913,10 +4052,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -3931,10 +4070,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -3949,10 +4088,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -3967,10 +4106,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -3985,10 +4124,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -4003,10 +4142,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -4021,10 +4160,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -4039,10 +4178,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -4057,10 +4196,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -4075,10 +4214,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -4093,10 +4232,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -4145,7 +4284,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4153,7 +4292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4171,11 +4310,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -4252,17 +4391,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -4340,10 +4479,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -4358,10 +4497,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -4376,10 +4515,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -4394,10 +4533,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -4412,10 +4551,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -4430,10 +4569,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -4448,10 +4587,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -4466,10 +4605,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -4484,10 +4623,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -4502,10 +4641,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -4520,10 +4659,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -4538,10 +4677,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -4556,10 +4695,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -4574,10 +4713,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -4592,10 +4731,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -4610,10 +4749,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -4628,10 +4767,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -4646,10 +4785,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -4664,10 +4803,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -4682,10 +4821,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -4734,7 +4873,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4742,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4760,11 +4899,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -4843,17 +4982,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -4931,10 +5070,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -4949,10 +5088,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -4967,10 +5106,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -4985,10 +5124,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -5003,10 +5142,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -5021,10 +5160,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -5039,10 +5178,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -5057,10 +5196,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -5075,10 +5214,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -5093,10 +5232,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -5111,10 +5250,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -5129,10 +5268,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -5147,10 +5286,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -5165,10 +5304,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -5183,10 +5322,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -5201,10 +5340,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -5219,10 +5358,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -5237,10 +5376,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -5255,10 +5394,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -5273,10 +5412,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -5325,7 +5464,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5333,7 +5472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5351,11 +5490,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -5432,17 +5571,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -5520,10 +5659,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -5538,10 +5677,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -5556,10 +5695,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -5574,10 +5713,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -5592,10 +5731,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -5610,10 +5749,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -5628,10 +5767,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -5646,10 +5785,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -5664,10 +5803,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -5682,10 +5821,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -5700,10 +5839,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -5718,10 +5857,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -5736,10 +5875,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -5754,10 +5893,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -5772,10 +5911,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -5790,10 +5929,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -5808,10 +5947,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -5826,10 +5965,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -5844,10 +5983,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -5862,10 +6001,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -5914,7 +6053,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5922,7 +6061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5940,11 +6079,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -6023,17 +6162,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -6111,10 +6250,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -6129,10 +6268,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -6147,10 +6286,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -6165,10 +6304,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -6183,10 +6322,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -6201,10 +6340,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -6219,10 +6358,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -6237,10 +6376,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -6255,10 +6394,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -6273,10 +6412,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -6291,10 +6430,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -6309,10 +6448,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -6327,10 +6466,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -6345,10 +6484,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -6363,10 +6502,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -6381,10 +6520,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -6399,10 +6538,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -6417,10 +6556,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -6435,10 +6574,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -6453,10 +6592,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -6505,7 +6644,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6513,7 +6652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6531,11 +6670,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -6614,17 +6753,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -6702,10 +6841,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -6720,10 +6859,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -6738,10 +6877,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -6756,10 +6895,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -6774,10 +6913,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -6792,10 +6931,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -6810,10 +6949,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -6828,10 +6967,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -6846,10 +6985,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -6864,10 +7003,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -6882,10 +7021,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -6900,10 +7039,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -6918,10 +7057,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -6936,10 +7075,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -6954,10 +7093,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -6972,10 +7111,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -6990,10 +7129,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -7008,10 +7147,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -7026,10 +7165,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -7044,10 +7183,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -7096,7 +7235,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7104,7 +7243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7122,11 +7261,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -7203,17 +7342,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -7291,10 +7430,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -7309,10 +7448,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -7327,10 +7466,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -7345,10 +7484,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -7363,10 +7502,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -7381,10 +7520,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -7399,10 +7538,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -7417,10 +7556,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -7435,10 +7574,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -7453,10 +7592,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -7471,10 +7610,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -7489,10 +7628,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -7507,10 +7646,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -7525,10 +7664,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -7543,10 +7682,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -7561,10 +7700,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -7579,10 +7718,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -7597,10 +7736,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -7615,10 +7754,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -7633,10 +7772,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -7685,7 +7824,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7693,7 +7832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7711,11 +7850,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -7794,17 +7933,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -7882,10 +8021,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -7900,10 +8039,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -7918,10 +8057,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -7936,10 +8075,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -7954,10 +8093,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -7972,10 +8111,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -7990,10 +8129,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -8008,10 +8147,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -8026,10 +8165,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -8044,10 +8183,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -8062,10 +8201,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -8080,10 +8219,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -8098,10 +8237,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -8116,10 +8255,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -8134,10 +8273,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -8152,10 +8291,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -8170,10 +8309,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -8188,10 +8327,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -8206,10 +8345,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -8224,10 +8363,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -8276,7 +8415,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8284,11 +8423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8302,11 +8441,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="F1" s="10" t="s">
         <v>1</v>
@@ -8337,17 +8476,17 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
@@ -8404,10 +8543,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -8422,10 +8561,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -8440,10 +8579,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -8458,10 +8597,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -8476,10 +8615,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -8494,10 +8633,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -8512,10 +8651,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -8530,10 +8669,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -8548,10 +8687,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -8566,10 +8705,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -8584,10 +8723,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -8602,10 +8741,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -8620,17 +8759,19 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -8638,10 +8779,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -8656,10 +8797,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -8674,10 +8815,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -8692,10 +8833,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -8710,10 +8851,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -8728,10 +8869,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -8746,10 +8887,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -9009,7 +9150,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -9021,7 +9162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9039,11 +9180,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -9113,17 +9254,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -9193,10 +9334,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -9211,10 +9352,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -9229,10 +9370,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -9247,10 +9388,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -9265,10 +9406,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -9283,10 +9424,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -9301,10 +9442,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -9319,10 +9460,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -9337,10 +9478,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -9355,10 +9496,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -9373,10 +9514,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -9391,10 +9532,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -9409,10 +9550,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -9427,10 +9568,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -9445,10 +9586,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -9463,10 +9604,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -9481,10 +9622,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -9499,10 +9640,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -9517,10 +9658,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -9535,10 +9676,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -9587,7 +9728,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9595,7 +9736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9613,11 +9754,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -9690,17 +9831,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
@@ -9772,10 +9913,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -9790,10 +9931,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -9808,10 +9949,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -9826,10 +9967,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -9844,10 +9985,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -9862,10 +10003,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -9880,10 +10021,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -9898,10 +10039,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -9916,10 +10057,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -9934,10 +10075,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -9952,10 +10093,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -9970,10 +10111,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -9988,10 +10129,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -10006,10 +10147,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -10024,10 +10165,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -10042,10 +10183,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -10060,10 +10201,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -10078,10 +10219,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -10096,10 +10237,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -10114,10 +10255,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -10166,7 +10307,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10174,7 +10315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10192,11 +10333,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -10275,17 +10416,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -10363,10 +10504,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -10381,10 +10522,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -10399,10 +10540,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -10417,10 +10558,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -10435,10 +10576,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -10453,10 +10594,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -10471,10 +10612,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -10489,10 +10630,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -10507,10 +10648,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -10525,10 +10666,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -10543,10 +10684,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -10561,10 +10702,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -10579,10 +10720,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -10597,10 +10738,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -10615,10 +10756,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -10633,10 +10774,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -10651,10 +10792,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -10669,10 +10810,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -10687,10 +10828,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -10705,10 +10846,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -10757,7 +10898,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10765,11 +10906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P29"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10783,11 +10924,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -10864,17 +11005,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -10952,10 +11093,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -10970,10 +11111,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -10988,10 +11129,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -11006,10 +11147,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -11024,10 +11165,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -11042,10 +11183,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -11060,10 +11201,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -11078,10 +11219,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -11096,10 +11237,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -11114,10 +11255,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -11132,10 +11273,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -11150,10 +11291,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -11168,10 +11309,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -11186,10 +11327,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -11204,10 +11345,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -11222,10 +11363,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -11240,10 +11381,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -11258,10 +11399,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -11276,10 +11417,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -11294,10 +11435,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -11346,7 +11487,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11354,7 +11495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11372,11 +11513,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -11453,17 +11594,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -11541,10 +11682,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -11559,10 +11700,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -11577,10 +11718,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -11595,10 +11736,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -11613,10 +11754,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -11631,10 +11772,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -11649,10 +11790,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -11667,10 +11808,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -11685,10 +11826,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -11703,10 +11844,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -11721,10 +11862,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -11739,10 +11880,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -11757,10 +11898,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -11775,10 +11916,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -11793,10 +11934,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -11811,10 +11952,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -11829,10 +11970,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -11847,10 +11988,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -11865,10 +12006,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -11883,10 +12024,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -11935,7 +12076,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11943,7 +12084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11961,11 +12102,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -12044,17 +12185,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -12132,10 +12273,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -12150,10 +12291,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -12168,10 +12309,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -12186,10 +12327,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -12204,10 +12345,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -12222,10 +12363,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -12240,10 +12381,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -12258,10 +12399,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -12276,10 +12417,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -12294,10 +12435,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -12312,10 +12453,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -12330,10 +12471,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -12348,10 +12489,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -12366,10 +12507,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -12384,10 +12525,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -12402,10 +12543,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -12420,10 +12561,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -12438,10 +12579,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -12456,10 +12597,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -12474,10 +12615,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -12526,7 +12667,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12534,7 +12675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12552,11 +12693,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="9"/>
       <c r="E1" s="6"/>
       <c r="F1" s="10" t="s">
@@ -12633,17 +12774,17 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -12721,10 +12862,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -12739,10 +12880,10 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
@@ -12757,10 +12898,10 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -12775,10 +12916,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -12793,10 +12934,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
@@ -12811,10 +12952,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -12829,10 +12970,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -12847,10 +12988,10 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -12865,10 +13006,10 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -12883,10 +13024,10 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -12901,10 +13042,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -12919,10 +13060,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -12937,10 +13078,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -12955,10 +13096,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -12973,10 +13114,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -12991,10 +13132,10 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -13009,10 +13150,10 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -13027,10 +13168,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -13045,10 +13186,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -13063,10 +13204,10 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -13115,7 +13256,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial"/>
+    <hyperlink ref="A1:C1" location="Síntese!A1" display="voltar à página inicial" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
